--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1908.511596666667</v>
+        <v>597.6180316666668</v>
       </c>
       <c r="H2">
-        <v>5725.534790000001</v>
+        <v>1792.854095</v>
       </c>
       <c r="I2">
-        <v>0.7311146390404845</v>
+        <v>0.4787032177461795</v>
       </c>
       <c r="J2">
-        <v>0.7311146390404845</v>
+        <v>0.4787032177461795</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +552,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1266596666666667</v>
+        <v>0.119457</v>
       </c>
       <c r="N2">
-        <v>0.379979</v>
+        <v>0.358371</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>241.7314426632678</v>
+        <v>71.389657208805</v>
       </c>
       <c r="R2">
-        <v>2175.58298396941</v>
+        <v>642.5069148792451</v>
       </c>
       <c r="S2">
-        <v>0.7311146390404845</v>
+        <v>0.4787032177461795</v>
       </c>
       <c r="T2">
-        <v>0.7311146390404845</v>
+        <v>0.4787032177461795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1493.537994</v>
       </c>
       <c r="I3">
-        <v>0.1907153709525463</v>
+        <v>0.3987839532217896</v>
       </c>
       <c r="J3">
-        <v>0.1907153709525463</v>
+        <v>0.3987839532217896</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +614,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1266596666666667</v>
+        <v>0.119457</v>
       </c>
       <c r="N3">
-        <v>0.379979</v>
+        <v>0.358371</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>63.057008158014</v>
+        <v>59.47118938308599</v>
       </c>
       <c r="R3">
-        <v>567.513073422126</v>
+        <v>535.240704447774</v>
       </c>
       <c r="S3">
-        <v>0.1907153709525463</v>
+        <v>0.3987839532217896</v>
       </c>
       <c r="T3">
-        <v>0.1907153709525463</v>
+        <v>0.3987839532217896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>204.056005</v>
+        <v>152.9462786666667</v>
       </c>
       <c r="H4">
-        <v>612.168015</v>
+        <v>458.838836</v>
       </c>
       <c r="I4">
-        <v>0.07816999000696925</v>
+        <v>0.1225128290320309</v>
       </c>
       <c r="J4">
-        <v>0.07816999000696925</v>
+        <v>0.1225128290320309</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1266596666666667</v>
+        <v>0.119457</v>
       </c>
       <c r="N4">
-        <v>0.379979</v>
+        <v>0.358371</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>25.84566557463167</v>
+        <v>18.270503610684</v>
       </c>
       <c r="R4">
-        <v>232.610990171685</v>
+        <v>164.434532496156</v>
       </c>
       <c r="S4">
-        <v>0.07816999000696925</v>
+        <v>0.1225128290320309</v>
       </c>
       <c r="T4">
-        <v>0.07816999000696925</v>
+        <v>0.1225128290320309</v>
       </c>
     </row>
   </sheetData>
